--- a/biology/Zoologie/L'Incroyable_Voyage_(film)/L'Incroyable_Voyage_(film).xlsx
+++ b/biology/Zoologie/L'Incroyable_Voyage_(film)/L'Incroyable_Voyage_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
+          <t>L'Incroyable_Voyage_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Incroyable Voyage ou Retour au bercail : L'Incroyable Randonnée au Québec (Homeward Bound: The Incredible Journey) est un film américain réalisé par Duwayne Dunham, sorti en 1993.
 Tiré du roman de Sheila Burnford (en) L'Incroyable Voyage, publié en 1961, c'est également le remake du film L'Incroyable Randonnée, produit également par les studios Disney et sorti en 1963.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
+          <t>L'Incroyable_Voyage_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,50 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chance, Shadow et Sassy sont respectivement deux chiens et un chat appartenant chacun à un des trois enfants de la famille Burnford, Jamie, Peter et Hope. Ils vivent dans une maison, en compagnie de leurs maîtres. Après le mariage de Laura, la mère des enfants, avec Bob Seaver, le beau-père des enfants, toute la famille doit partir s'installer à San Francisco où Bob a obtenu un travail.
 Ne pouvant pas ramener leurs animaux sur place, les propriétaires les laissent à une de leurs amies, Kate, une fermière qui possède un ranch. Ils les informent qu'ils reviendront les voir dans deux semaines. Mais les animaux, se croyant abandonnés définitivement, désireux de retrouver leurs maîtres, s'échappent de la ferme afin de rentrer dans leur foyer.
 Pour survivre durant leur long voyage à travers les montagnes de la Sierra Nevada et affronter les dangers, les animaux devront apprendre à compter les uns sur les autres, et à s'adapter à la personnalité très différente de chacun. Shadow est le plus âgé, le plus sage ; Sassy est intelligente et sait jouer de son charme félin ; Chance est le plus jeune, et, de ce fait, le plus anxieux, le plus impatient, et le plus indiscipliné, ce qui pourra lui attirer des ennuis.
-Synopsis détaillé
-Le film débute avec Chance, le narrateur du film, un bouledogue américain assez libre d’esprit, qui explique qu’il est l’animal de compagnie de Jamie Burnford, mais il ne semble pas donner tant d'importance que cela au fait d'avoir un propriétaire ou de faire faire partie d’une famille. Il partage sa maison avec Shadow, un vieux Golden Retriever sage appartenant au frère de Jamie, Peter, et Sassy, une chatte himalayenne très choyée appartenant Hope, la sœur de Peter et de Jamie. Ce jour-là, la mère des enfants, Laura Burnford, épouse Bob Seaver, et Chance se fait remarquer en dévorant le gâteau de mariage devant tous les invités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film débute avec Chance, le narrateur du film, un bouledogue américain assez libre d’esprit, qui explique qu’il est l’animal de compagnie de Jamie Burnford, mais il ne semble pas donner tant d'importance que cela au fait d'avoir un propriétaire ou de faire faire partie d’une famille. Il partage sa maison avec Shadow, un vieux Golden Retriever sage appartenant au frère de Jamie, Peter, et Sassy, une chatte himalayenne très choyée appartenant Hope, la sœur de Peter et de Jamie. Ce jour-là, la mère des enfants, Laura Burnford, épouse Bob Seaver, et Chance se fait remarquer en dévorant le gâteau de mariage devant tous les invités.
 Peu de temps après le mariage, la famille doit déménager temporairement à San Francisco, en raison du travail de Bob. Ne pouvant pas amener les animaux qui se retrouveraient à l'étroit, ils les laissent alors dans un ranch appartenant à Kate, une amie d'enfance de Laura. Shadow et Sassy se sentent d'emblée seuls, mais Chance y voit une occasion de se détendre et d’être libre. Plus tard dans la semaine, Kate doit s'absenter deux jours pour amener les chevaux aux pâturages, laissant ainsi les animaux être pris en charge par son voisin Frank. Après le départ de leurs maîtres et de Kate, les animaux craignent d’avoir été abandonnés. Shadow, refusant de croire que son garçon le quitterait, décide de rentrer chez lui. Ne voulant rester seuls dans le ranch, Chance et Sassy décident malgré leurs doutes d’accompagner Shadow dans son voyage.
 Lorsque Frank arrive, la moitié du message que lui avait écrit Kate et où elle lui rappelait qu'il devait nourrir les animaux en son absence est tombée par terre. En lisant juste la première moitié, il croit comprendre que Kate a emmené les trois animaux avec elle. 
 Après leur départ du ranch, Shadow, Chance et Sassy se dirigent vers la nature sauvage, rocheuse et montagneuse de la Sierra Nevada. Après une nuit passée dans la peur des bruits de la forêt, le groupe s’arrête pour prendre le petit déjeuner au bord d’une rivière. Cependant, deux oursons noirs interrompent Chance et un grand ours brun provoque la fuite du groupe. Plus tard, à proximité d'une autre rivière, Sassy refuse de traverser à la nage pour suivre les chiens et tente plutôt de traverser par un chemin en pierre et en bois plus en aval ; à mi-chemin, le bois se brise et elle tombe dans la rivière. Shadow tente de la sauver, mais elle est emportée dans une cascade et n'est pas retrouvée par les chiens. Rongés par la culpabilité, ces derniers décident de continuer sans elle. À leur insu, Sassy survit et est retrouvée plus tard sur une rive par un vieil homme nommé Quentin, qui la soigne et lui redonne des forces. 
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Shadow  : un vieux golden retriever sage appartenant à Peter.
  Chance  : un jeune bouledogue américain impatient et indiscipliné appartenant à Jamie.
@@ -573,36 +624,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Homeward Bound: The Incredible Journey
 Titre français : L'Incroyable Voyage
-Titre québécois : Retour au bercail[1] ; Retour au bercail : L'Incroyable Randonnée (titre à la TV)
+Titre québécois : Retour au bercail ; Retour au bercail : L'Incroyable Randonnée (titre à la TV)
 Réalisation : Duwayne Dunham
 Scénario : Caroline Thompson et Linda Woolverton, d'après l'œuvre de Sheila Burnford
 Musique : Bruce Broughton
@@ -618,55 +671,95 @@
 Coproduction : Mack Bing
 Sociétés de production : Touchwood Pacific Partners 1 et Walt Disney Pictures
 Sociétés de distribution : Buena Vista Pictures (États-Unis) ; Gaumont Buena Vista International (France)
-Budget : n/a[2]
+Budget : n/a
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur (Technicolor) — 35 mm — 1,85:1 (Panavision) — son : Dolby (RCA Sound Recording)
 Genre : aventures, comédie dramatique
 Durée : 84 minutes
-Dates de sortie[3] :
-États-Unis, Québec : 12 février 1993[1]
+Dates de sortie :
+États-Unis, Québec : 12 février 1993
 France : 13 octobre 1993
 Classification :
 États-Unis : tous publics (G - General Audiences)
-France : tous publics (conseillé à partir de 6 ans)[4],[5]
-Belgique : tous publics (jeune public) (Alle Leeftijden)[6]
-Québec : tous publics (G - General Rating)[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+France : tous publics (conseillé à partir de 6 ans),
+Belgique : tous publics (jeune public) (Alle Leeftijden)
+Québec : tous publics (G - General Rating)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Animaux
-Don Ameche (VF : Jean Reno ; VQ : Jean Brousseau) : Shadow (voix)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Don Ameche (VF : Jean Reno ; VQ : Jean Brousseau) : Shadow (voix)
 Sally Field (VF : Valérie Lemercier ; VQ : Claudine Chatel) : Sassy (voix)
 Michael J. Fox (VF : Christian Clavier ; VQ : Olivier Visentin) : Chance (voix)
-Bart l'ours : l'ours
-Humains
+Bart l'ours : l'ours</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Humains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Robert Hays (VF : Éric Legrand ; VQ : Mario Desmarais) : Bob Seaver
 Kim Greist (VF : Danièle Douet) : Laura Burnford-Seaver
 Benj Thall (en) (VF : Alexis Tomassian) : Peter Burnford
@@ -693,33 +786,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sorties cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Source : Internet Movie Database[3]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Source : Internet Movie Database
 États-Unis : 3 février 1993 (sortie limitée) ; 12 février 1993 (sortie nationale)
 Canada : 12 février 1993
 Argentine : 4 mars 1993
@@ -741,77 +836,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Sorties vidéos</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En France, le film L'Incroyable Voyage est sorti en DVD le 30 septembre 1998[7] et ressorti en DVD le 21 mai 2003[8]. Le film est également sorti en VOD le 24 mars 2020 (sortie sur Disney+)[4].
-Au Mexique, le film est sortie directement en DVD le 12 décembre 2000[3].
-En Grèce, le film est également sortie directement en DVD le 3 mars 2001[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Origine et production</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film original (dont L'Incroyable Voyage en est le remake), L'Incroyable Randonnée (1963), tiré d'un livre de Sheila Burnford, n'a pas été un blockbuster mais a quand même joué d'un certain succès. La différence entre ce film et son remake est que, cette fois, les animaux parlent[9].
-Le film a été tourné en Oregon aux États-Unis. Quatre forêts nationales ont été utilisées pour le tournage dont la Forêt nationale de Deschutes, Mont Hood National Forest, Wallowa–Whitman National Forest.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
+          <t>L'Incroyable_Voyage_(film)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -826,16 +857,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sortie et Accueil</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Le film a été bien accueilli par les critiques. Sur le site Rotten Tomatoes, il obtient une note de 88 %  de critiques positives sur 24 avis. Roger Ebert du Chicago Sun-Times a déclaré : « Il a un certain savoir faire et un charme indéniable, si vous vous trouvez à le regardez avec un enfant, vous l'adorerez presque autant ». Janet Martin du New York Times a dit pour sa part : « Ce film est intelligent, même avec ses acteurs humains, la distribution avec les animaux du premier film joue un rôle important dans une famille américaine typique. »
-Box-office
-Le film a été un succès commercial, remportant 41 833 324 $ aux États-Unis[2], par rapport à son budget de production estimé entre 5 et 15 millions $[10]. En France, il totalise 796 752 entrées[2].
-</t>
+          <t>Sorties vidéos</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En France, le film L'Incroyable Voyage est sorti en DVD le 30 septembre 1998 et ressorti en DVD le 21 mai 2003. Le film est également sorti en VOD le 24 mars 2020 (sortie sur Disney+).
+Au Mexique, le film est sortie directement en DVD le 12 décembre 2000.
+En Grèce, le film est également sortie directement en DVD le 3 mars 2001.</t>
         </is>
       </c>
     </row>
@@ -845,7 +876,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
+          <t>L'Incroyable_Voyage_(film)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -860,13 +891,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nomination</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Source : Internet Movie Database[11]
-MovieGuide Awards 1994 : meilleur film pour les familles</t>
+          <t>Origine et production</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film original (dont L'Incroyable Voyage en est le remake), L'Incroyable Randonnée (1963), tiré d'un livre de Sheila Burnford, n'a pas été un blockbuster mais a quand même joué d'un certain succès. La différence entre ce film et son remake est que, cette fois, les animaux parlent.
+Le film a été tourné en Oregon aux États-Unis. Quatre forêts nationales ont été utilisées pour le tournage dont la Forêt nationale de Deschutes, Mont Hood National Forest, Wallowa–Whitman National Forest.
+</t>
         </is>
       </c>
     </row>
@@ -876,7 +910,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_(film)</t>
+          <t>L'Incroyable_Voyage_(film)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,10 +925,119 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Sortie et Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été bien accueilli par les critiques. Sur le site Rotten Tomatoes, il obtient une note de 88 %  de critiques positives sur 24 avis. Roger Ebert du Chicago Sun-Times a déclaré : « Il a un certain savoir faire et un charme indéniable, si vous vous trouvez à le regardez avec un enfant, vous l'adorerez presque autant ». Janet Martin du New York Times a dit pour sa part : « Ce film est intelligent, même avec ses acteurs humains, la distribution avec les animaux du premier film joue un rôle important dans une famille américaine typique. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sortie et Accueil</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été un succès commercial, remportant 41 833 324 $ aux États-Unis, par rapport à son budget de production estimé entre 5 et 15 millions $. En France, il totalise 796 752 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Source : Internet Movie Database
+MovieGuide Awards 1994 : meilleur film pour les familles</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_(film)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>À la suite du succès de ce remake, une suite intitulée L'Incroyable Voyage II : À San Francisco est sortie en 1996. Un troisième opus, appelé L'Incroyable Voyage 3 : La Nouvelle Aventure devait voir le jour en 2005 mais le projet fut annulé.
 Don Ameche, la voix originale du chien Shadow, décède près de 10 mois après la sortie du film.
